--- a/Release and Sprint Burndown Charts.xlsx
+++ b/Release and Sprint Burndown Charts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Uni\Year 3\Semester 2\IFB299 Project Design and Development\IFB299-Vroom-x3-Car-Rentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC9841F-52CE-43C9-8A97-357FC50624EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870D71BE-9F2E-4146-93B8-EA33AB83ED8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,6 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -121,7 +122,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,6 +541,15 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2904,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2914,13 +2923,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2948,7 +2957,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>24</v>
       </c>
     </row>
@@ -2956,7 +2965,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>6</v>
       </c>
     </row>
@@ -2964,16 +2973,16 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3083,18 +3092,27 @@
         <v>10</v>
       </c>
       <c r="B23" s="3"/>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>9</v>
       </c>
       <c r="B24" s="3"/>
+      <c r="C24" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>8</v>
       </c>
       <c r="B25" s="3"/>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -3185,9 +3203,9 @@
       <c r="D44" s="2"/>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="2"/>
@@ -3235,9 +3253,9 @@
       <c r="D80" s="2"/>
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D103" s="2"/>

--- a/Release and Sprint Burndown Charts.xlsx
+++ b/Release and Sprint Burndown Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Uni\Year 3\Semester 2\IFB299 Project Design and Development\IFB299-Vroom-x3-Car-Rentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870D71BE-9F2E-4146-93B8-EA33AB83ED8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B43FC3-56D0-4FD5-A028-BBF3642A266E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Sprint Days Remaining</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Sprint 1 Burndown</t>
   </si>
   <si>
-    <t>ALSO DO A SPRINT 2 BURNDOWN AS WELL</t>
+    <t>Sprint 2 Burndown</t>
   </si>
 </sst>
 </file>
@@ -508,10 +508,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn down chart'!$C$13:$C$25</c:f>
+              <c:f>'Burn down chart'!$C$13:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -550,6 +550,30 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,13 +1063,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1126,7 +1150,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,6 +1482,686 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 2 Burn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Down C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>hart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Tasks Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$38:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$B$38:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7552-43B6-AE73-C4B4449BAE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Tasks Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$38:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$C$38:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7552-43B6-AE73-C4B4449BAE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="590107240"/>
+        <c:axId val="590108552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590107240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Days</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaning</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590108552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590108552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaining</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590107240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="43137"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1535,6 +2242,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2052,6 +2799,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2640,6 +3903,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>278423</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1030897</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>2930</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0A3AEA-AF14-482E-AC6D-721797B456AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2913,8 +4214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2947,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2958,7 +4259,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2966,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3119,42 +4423,63 @@
         <v>7</v>
       </c>
       <c r="B26" s="3"/>
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>6</v>
       </c>
       <c r="B27" s="3"/>
+      <c r="C27" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>5</v>
       </c>
       <c r="B28" s="3"/>
+      <c r="C28" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>4</v>
       </c>
       <c r="B29" s="3"/>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3</v>
       </c>
       <c r="B30" s="3"/>
+      <c r="C30" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2</v>
       </c>
       <c r="B31" s="3"/>
+      <c r="C31" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32" s="3"/>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3164,6 +4489,9 @@
       <c r="B33" s="1">
         <v>0</v>
       </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3173,34 +4501,164 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1">
+        <v>24</v>
+      </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>18</v>
+      </c>
+      <c r="B40" s="3"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>17</v>
+      </c>
+      <c r="B41" s="3"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>16</v>
+      </c>
+      <c r="B42" s="3"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>15</v>
+      </c>
+      <c r="B43" s="3"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3"/>
       <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>13</v>
+      </c>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>12</v>
+      </c>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>11</v>
+      </c>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>9</v>
+      </c>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>5</v>
+      </c>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
@@ -3303,12 +4761,13 @@
       <c r="D117" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Release and Sprint Burndown Charts.xlsx
+++ b/Release and Sprint Burndown Charts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Uni\Year 3\Semester 2\IFB299 Project Design and Development\IFB299-Vroom-x3-Car-Rentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B43FC3-56D0-4FD5-A028-BBF3642A266E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5A033E-D395-4B21-9D46-FA875519ECCC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1063,13 +1063,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1150,10 +1150,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,7 +1699,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1828,7 +1831,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4214,8 +4277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4248,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4259,10 +4322,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4270,7 +4333,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4525,10 +4591,10 @@
         <v>20</v>
       </c>
       <c r="B38" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -4537,6 +4603,9 @@
         <v>19</v>
       </c>
       <c r="B39" s="3"/>
+      <c r="C39" s="1">
+        <v>25</v>
+      </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4544,6 +4613,9 @@
         <v>18</v>
       </c>
       <c r="B40" s="3"/>
+      <c r="C40" s="1">
+        <v>25</v>
+      </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4551,6 +4623,9 @@
         <v>17</v>
       </c>
       <c r="B41" s="3"/>
+      <c r="C41" s="1">
+        <v>25</v>
+      </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4558,6 +4633,9 @@
         <v>16</v>
       </c>
       <c r="B42" s="3"/>
+      <c r="C42" s="1">
+        <v>25</v>
+      </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4565,6 +4643,9 @@
         <v>15</v>
       </c>
       <c r="B43" s="3"/>
+      <c r="C43" s="1">
+        <v>25</v>
+      </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4572,6 +4653,9 @@
         <v>14</v>
       </c>
       <c r="B44" s="3"/>
+      <c r="C44" s="1">
+        <v>25</v>
+      </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4579,84 +4663,126 @@
         <v>13</v>
       </c>
       <c r="B45" s="3"/>
+      <c r="C45" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>12</v>
       </c>
       <c r="B46" s="3"/>
+      <c r="C46" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>11</v>
       </c>
       <c r="B47" s="3"/>
+      <c r="C47" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>10</v>
       </c>
       <c r="B48" s="3"/>
+      <c r="C48" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>9</v>
       </c>
       <c r="B49" s="3"/>
+      <c r="C49" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>8</v>
       </c>
       <c r="B50" s="3"/>
+      <c r="C50" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>7</v>
       </c>
       <c r="B51" s="3"/>
+      <c r="C51" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>6</v>
       </c>
       <c r="B52" s="3"/>
+      <c r="C52" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>5</v>
       </c>
       <c r="B53" s="3"/>
+      <c r="C53" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>4</v>
       </c>
       <c r="B54" s="3"/>
+      <c r="C54" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>3</v>
       </c>
       <c r="B55" s="3"/>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2</v>
       </c>
       <c r="B56" s="3"/>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>1</v>
       </c>
       <c r="B57" s="3"/>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0</v>
       </c>
       <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
         <v>0</v>
       </c>
     </row>
